--- a/BPositive.xlsx
+++ b/BPositive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05ED512-A3A6-4772-9333-B37C8F7FD58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8948760E-CC73-446D-8B2F-9C8AE26827A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AEE63962-B836-4864-8C75-EAC2AF0EE8F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="158">
   <si>
     <t>Sl No.</t>
   </si>
@@ -210,6 +210,306 @@
   </si>
   <si>
     <t>2020 MBBS</t>
+  </si>
+  <si>
+    <t>ADLIN SUSAN VINU</t>
+  </si>
+  <si>
+    <t>AISWARYA VINCENT</t>
+  </si>
+  <si>
+    <t>AJIN B CHANDRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEENA JOY </t>
+  </si>
+  <si>
+    <t>ALEN A FRANCIS XAVIOUR</t>
+  </si>
+  <si>
+    <t>AMRUTHA C P</t>
+  </si>
+  <si>
+    <t>ANJANA SREEKUMAR</t>
+  </si>
+  <si>
+    <t>ANJITH G BABU</t>
+  </si>
+  <si>
+    <t>ANN MARIYA SYRIAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNA M J </t>
+  </si>
+  <si>
+    <t>ARATHY V S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEAULA HANNA RAJ </t>
+  </si>
+  <si>
+    <t>BINCY JOHNS</t>
+  </si>
+  <si>
+    <t>BLESSON K ISAC</t>
+  </si>
+  <si>
+    <t>DEEPA ROSE THOMAS</t>
+  </si>
+  <si>
+    <t>GAADHA G NAIR</t>
+  </si>
+  <si>
+    <t>GOURI LAKSHMI A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JANVI A </t>
+  </si>
+  <si>
+    <t>JOBIN ANTONY</t>
+  </si>
+  <si>
+    <t>KAVYA S JAYAKUMAR</t>
+  </si>
+  <si>
+    <t>LEKSHMI JAYALAL</t>
+  </si>
+  <si>
+    <t>MALAVIKA K KRISHNAN</t>
+  </si>
+  <si>
+    <t>MALAVIKA S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGHNA KUNJANAN </t>
+  </si>
+  <si>
+    <t>NIA GRACE PAUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAHUL VP </t>
+  </si>
+  <si>
+    <t>RIYA SUSAN MATHEW</t>
+  </si>
+  <si>
+    <t>SIDDHARTH JAYACHANDRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRUTHY S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWETA VINCENT </t>
+  </si>
+  <si>
+    <t>2021 MBBS</t>
+  </si>
+  <si>
+    <t>NEHA MARIYA JOPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80751 33404 </t>
+  </si>
+  <si>
+    <t>ALEESHA RAJU</t>
+  </si>
+  <si>
+    <t>ANISHA CN</t>
+  </si>
+  <si>
+    <t>ANNA MARIYAM</t>
+  </si>
+  <si>
+    <t>APARNA</t>
+  </si>
+  <si>
+    <t>CHERIYAN  J MANGALY</t>
+  </si>
+  <si>
+    <t>JOEL JOSE</t>
+  </si>
+  <si>
+    <t>JOVAN SHAJI</t>
+  </si>
+  <si>
+    <t>KAVYA H.K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARY ISHA PAUL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMED FADHIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGITHA M FRANCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRATHYUSHA </t>
+  </si>
+  <si>
+    <t>REJOICE PAUL REGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALMA </t>
+  </si>
+  <si>
+    <t>SANCY JOHN</t>
+  </si>
+  <si>
+    <t>SANIYA.K.SANISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIAN SUNNY </t>
+  </si>
+  <si>
+    <t>SONIL SABU</t>
+  </si>
+  <si>
+    <t>SREESHA SUMESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAISHNAVI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNA MARIYAM </t>
+  </si>
+  <si>
+    <t>2022 MBBS</t>
+  </si>
+  <si>
+    <t>ADITYA  SUNIL</t>
+  </si>
+  <si>
+    <t>ADITYA KUMAR</t>
+  </si>
+  <si>
+    <t>AKSHAY P S</t>
+  </si>
+  <si>
+    <t>AKSHAY R S</t>
+  </si>
+  <si>
+    <t>ALEN SHAJI</t>
+  </si>
+  <si>
+    <t>ALIN GLANY A L</t>
+  </si>
+  <si>
+    <t>AMBILI M S</t>
+  </si>
+  <si>
+    <t>ANAKHA RANJITH</t>
+  </si>
+  <si>
+    <t>ANGEL AJU</t>
+  </si>
+  <si>
+    <t>ANJITHA S</t>
+  </si>
+  <si>
+    <t>ANNA MARIYA JOY</t>
+  </si>
+  <si>
+    <t>ANNA VINOJ</t>
+  </si>
+  <si>
+    <t>ARADHYA MISHRA</t>
+  </si>
+  <si>
+    <t>ARYA KRISHNA</t>
+  </si>
+  <si>
+    <t>ASHIK S R</t>
+  </si>
+  <si>
+    <t>ASIN SABU</t>
+  </si>
+  <si>
+    <t>CATHERINE FELIX</t>
+  </si>
+  <si>
+    <t>CHAITANYA PRATAP SINGH</t>
+  </si>
+  <si>
+    <t>DIYA RACHEL PRADEEP</t>
+  </si>
+  <si>
+    <t>FATHIMA NASLA N</t>
+  </si>
+  <si>
+    <t>GEEVARGHESE NEBU</t>
+  </si>
+  <si>
+    <t>GOURI NANDA P R</t>
+  </si>
+  <si>
+    <t>HAJIRA JAFAR KHAN</t>
+  </si>
+  <si>
+    <t>HANNA MARIYA SHAJI</t>
+  </si>
+  <si>
+    <t>IDA WILSON</t>
+  </si>
+  <si>
+    <t>JANVI TIWARI</t>
+  </si>
+  <si>
+    <t>JEMY SARA BOBEN</t>
+  </si>
+  <si>
+    <t>JOSEPH KURIAKOSE</t>
+  </si>
+  <si>
+    <t>KIRTHIKA MURALIDHARAN</t>
+  </si>
+  <si>
+    <t>KRISHNENDU M C</t>
+  </si>
+  <si>
+    <t>LIYA STANLEY PETER</t>
+  </si>
+  <si>
+    <t>MILAN MANOJ</t>
+  </si>
+  <si>
+    <t>NANDANA GOPAKUMAR</t>
+  </si>
+  <si>
+    <t>NIHARA M B</t>
+  </si>
+  <si>
+    <t>PARVATHY AJAY</t>
+  </si>
+  <si>
+    <t>RIYA ELSA TONY</t>
+  </si>
+  <si>
+    <t>RIYA GRACE SIBY</t>
+  </si>
+  <si>
+    <t>SAFAR SADIK ALI</t>
+  </si>
+  <si>
+    <t>SAPHIA V P</t>
+  </si>
+  <si>
+    <t>SHARON MARIA SAJI</t>
+  </si>
+  <si>
+    <t>SHERINA C</t>
+  </si>
+  <si>
+    <t>SHUCHI KUMARI</t>
+  </si>
+  <si>
+    <t>TRISHA SHIBU</t>
+  </si>
+  <si>
+    <t>YOGESH A</t>
+  </si>
+  <si>
+    <t>2023 MBBS</t>
   </si>
 </sst>
 </file>
@@ -233,6 +533,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -253,15 +554,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -312,11 +625,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -352,6 +678,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCD8E81-8BC0-414F-84DB-3F11707DF65E}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1775,6 +2110,1550 @@
         <v>30</v>
       </c>
     </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="11">
+        <v>6282542223</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="11">
+        <v>8590950104</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="11">
+        <v>9562719936</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="11">
+        <v>9207529046</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="11">
+        <v>8891714140</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="11">
+        <v>9544429934</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="11">
+        <v>8301907559</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="11">
+        <v>9061606748</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="11">
+        <v>9061360339</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="11">
+        <v>8547989866</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="11">
+        <v>9745687577</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="11">
+        <v>9188951590</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="11">
+        <v>860623168</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="11">
+        <v>8089302784</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="11">
+        <v>9847663951</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="11">
+        <v>9567837412</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="11">
+        <v>8075705853</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="11">
+        <v>7012508288</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="11">
+        <v>7306025336</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="11">
+        <v>9400763603</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="11">
+        <v>9495715478</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="11">
+        <v>9207918168</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <v>85</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="11">
+        <v>8301902119</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <v>86</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="11">
+        <v>9447796341</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
+        <v>87</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="11">
+        <v>9207375702</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <v>88</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="11">
+        <v>9072009430</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>89</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="11">
+        <v>9778542319</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="11">
+        <v>6282088875</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <v>91</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="11">
+        <v>8281575763</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="11">
+        <v>9400193992</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <v>93</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="13">
+        <v>9207109504</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="13">
+        <v>8301964862</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="14">
+        <v>7902761403</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="14">
+        <v>8289910491</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
+        <v>97</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="13">
+        <v>7907602068</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
+        <v>98</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="13">
+        <v>9074163146</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
+        <v>99</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="14">
+        <v>8547452338</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
+        <v>100</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="13">
+        <v>9188101586</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="9">
+        <v>101</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="13">
+        <v>8921060628</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
+        <v>102</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="13">
+        <v>790279041</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="9">
+        <v>103</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="14">
+        <v>9072503248</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="9">
+        <v>104</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105" s="13">
+        <v>7736945475</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="9">
+        <v>105</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" s="14">
+        <v>6282983354</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="9">
+        <v>106</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" s="13">
+        <v>9746917343</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="9">
+        <v>107</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="13">
+        <v>8606699345</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="9">
+        <v>108</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="14">
+        <v>9207023559</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="9">
+        <v>109</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="13">
+        <v>7994951696</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="9">
+        <v>110</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="13">
+        <v>9746918433</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="9">
+        <v>111</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="13">
+        <v>7356835497</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="9">
+        <v>112</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="13">
+        <v>9207555247</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="9">
+        <v>113</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="9">
+        <v>114</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" s="14">
+        <v>7902761403</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="9">
+        <v>115</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="9">
+        <v>116</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="9">
+        <v>117</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="9">
+        <v>118</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="9">
+        <v>119</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="9">
+        <v>120</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="9">
+        <v>121</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="9">
+        <v>122</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="9">
+        <v>123</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="9">
+        <v>124</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="9">
+        <v>125</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="9">
+        <v>126</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="9">
+        <v>127</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="9">
+        <v>128</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="9">
+        <v>129</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="9">
+        <v>130</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="9">
+        <v>131</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="9">
+        <v>132</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="9">
+        <v>133</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="9">
+        <v>134</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="9">
+        <v>135</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="9">
+        <v>136</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="9">
+        <v>137</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="9">
+        <v>138</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="9">
+        <v>139</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="9">
+        <v>140</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="9">
+        <v>141</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="9">
+        <v>142</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="9">
+        <v>143</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="9">
+        <v>144</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="9">
+        <v>145</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="9">
+        <v>146</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="9">
+        <v>147</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="9">
+        <v>148</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="9">
+        <v>149</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="9">
+        <v>150</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="9">
+        <v>151</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="9">
+        <v>152</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="9">
+        <v>153</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="9">
+        <v>154</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="9">
+        <v>155</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="9">
+        <v>156</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="9">
+        <v>157</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="9">
+        <v>158</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BPositive.xlsx
+++ b/BPositive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8948760E-CC73-446D-8B2F-9C8AE26827A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68670AEE-2C0E-4FD3-8EAB-6CA130FDBB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AEE63962-B836-4864-8C75-EAC2AF0EE8F0}"/>
   </bookViews>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCD8E81-8BC0-414F-84DB-3F11707DF65E}">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3001,7 +3001,9 @@
       <c r="B116" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="9"/>
+      <c r="C116" s="9">
+        <v>9562851703</v>
+      </c>
       <c r="D116" s="9" t="s">
         <v>157</v>
       </c>
@@ -3016,7 +3018,9 @@
       <c r="B117" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="9"/>
+      <c r="C117" s="9">
+        <v>6206704976</v>
+      </c>
       <c r="D117" s="9" t="s">
         <v>157</v>
       </c>
@@ -3031,7 +3035,9 @@
       <c r="B118" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="9"/>
+      <c r="C118" s="9">
+        <v>7907011149</v>
+      </c>
       <c r="D118" s="9" t="s">
         <v>157</v>
       </c>
@@ -3046,7 +3052,9 @@
       <c r="B119" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="9">
+        <v>9567640345</v>
+      </c>
       <c r="D119" s="9" t="s">
         <v>157</v>
       </c>
@@ -3061,7 +3069,9 @@
       <c r="B120" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="9"/>
+      <c r="C120" s="9">
+        <v>6282688754</v>
+      </c>
       <c r="D120" s="9" t="s">
         <v>157</v>
       </c>
@@ -3076,7 +3086,9 @@
       <c r="B121" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="9">
+        <v>7994140520</v>
+      </c>
       <c r="D121" s="9" t="s">
         <v>157</v>
       </c>
@@ -3091,7 +3103,9 @@
       <c r="B122" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="9"/>
+      <c r="C122" s="9">
+        <v>7736010876</v>
+      </c>
       <c r="D122" s="9" t="s">
         <v>157</v>
       </c>
@@ -3121,7 +3135,9 @@
       <c r="B124" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="9"/>
+      <c r="C124" s="9">
+        <v>8714725168</v>
+      </c>
       <c r="D124" s="9" t="s">
         <v>157</v>
       </c>
@@ -3136,7 +3152,9 @@
       <c r="B125" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="9"/>
+      <c r="C125" s="9">
+        <v>7012609358</v>
+      </c>
       <c r="D125" s="9" t="s">
         <v>157</v>
       </c>
@@ -3151,7 +3169,9 @@
       <c r="B126" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="9"/>
+      <c r="C126" s="9">
+        <v>7592002125</v>
+      </c>
       <c r="D126" s="9" t="s">
         <v>157</v>
       </c>
@@ -3181,7 +3201,9 @@
       <c r="B128" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="9">
+        <v>8299194254</v>
+      </c>
       <c r="D128" s="9" t="s">
         <v>157</v>
       </c>
@@ -3196,7 +3218,9 @@
       <c r="B129" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="9">
+        <v>8943715963</v>
+      </c>
       <c r="D129" s="9" t="s">
         <v>157</v>
       </c>
@@ -3211,7 +3235,9 @@
       <c r="B130" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="9"/>
+      <c r="C130" s="9">
+        <v>9074680620</v>
+      </c>
       <c r="D130" s="9" t="s">
         <v>157</v>
       </c>
@@ -3226,7 +3252,9 @@
       <c r="B131" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="9"/>
+      <c r="C131" s="9">
+        <v>9526043218</v>
+      </c>
       <c r="D131" s="9" t="s">
         <v>157</v>
       </c>
@@ -3241,7 +3269,9 @@
       <c r="B132" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="9"/>
+      <c r="C132" s="9">
+        <v>9847154508</v>
+      </c>
       <c r="D132" s="9" t="s">
         <v>157</v>
       </c>
@@ -3256,7 +3286,9 @@
       <c r="B133" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="9"/>
+      <c r="C133" s="9">
+        <v>8384879434</v>
+      </c>
       <c r="D133" s="9" t="s">
         <v>157</v>
       </c>
@@ -3271,7 +3303,9 @@
       <c r="B134" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="9"/>
+      <c r="C134" s="9">
+        <v>8951143553</v>
+      </c>
       <c r="D134" s="9" t="s">
         <v>157</v>
       </c>
@@ -3301,7 +3335,9 @@
       <c r="B136" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="9"/>
+      <c r="C136" s="9">
+        <v>9037212295</v>
+      </c>
       <c r="D136" s="9" t="s">
         <v>157</v>
       </c>
@@ -3316,7 +3352,9 @@
       <c r="B137" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="9"/>
+      <c r="C137" s="9">
+        <v>8590883815</v>
+      </c>
       <c r="D137" s="9" t="s">
         <v>157</v>
       </c>
@@ -3331,7 +3369,9 @@
       <c r="B138" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C138" s="9"/>
+      <c r="C138" s="9">
+        <v>8714589385</v>
+      </c>
       <c r="D138" s="9" t="s">
         <v>157</v>
       </c>
@@ -3346,7 +3386,9 @@
       <c r="B139" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="9"/>
+      <c r="C139" s="9">
+        <v>9746215305</v>
+      </c>
       <c r="D139" s="9" t="s">
         <v>157</v>
       </c>
@@ -3361,7 +3403,9 @@
       <c r="B140" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="9"/>
+      <c r="C140" s="9">
+        <v>9359908703</v>
+      </c>
       <c r="D140" s="9" t="s">
         <v>157</v>
       </c>
@@ -3406,7 +3450,9 @@
       <c r="B143" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="9"/>
+      <c r="C143" s="9">
+        <v>9037385340</v>
+      </c>
       <c r="D143" s="9" t="s">
         <v>157</v>
       </c>
@@ -3436,7 +3482,9 @@
       <c r="B145" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C145" s="9"/>
+      <c r="C145" s="9">
+        <v>8075570979</v>
+      </c>
       <c r="D145" s="9" t="s">
         <v>157</v>
       </c>
@@ -3451,7 +3499,9 @@
       <c r="B146" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="9"/>
+      <c r="C146" s="9">
+        <v>9567244325</v>
+      </c>
       <c r="D146" s="9" t="s">
         <v>157</v>
       </c>
@@ -3466,7 +3516,9 @@
       <c r="B147" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="9"/>
+      <c r="C147" s="9">
+        <v>7994212827</v>
+      </c>
       <c r="D147" s="9" t="s">
         <v>157</v>
       </c>
@@ -3481,7 +3533,9 @@
       <c r="B148" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C148" s="9"/>
+      <c r="C148" s="9">
+        <v>7510558979</v>
+      </c>
       <c r="D148" s="9" t="s">
         <v>157</v>
       </c>
@@ -3496,7 +3550,9 @@
       <c r="B149" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="9"/>
+      <c r="C149" s="9">
+        <v>8113996539</v>
+      </c>
       <c r="D149" s="9" t="s">
         <v>157</v>
       </c>
@@ -3511,7 +3567,9 @@
       <c r="B150" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C150" s="9"/>
+      <c r="C150" s="9">
+        <v>7012136475</v>
+      </c>
       <c r="D150" s="9" t="s">
         <v>157</v>
       </c>
@@ -3526,7 +3584,9 @@
       <c r="B151" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C151" s="9"/>
+      <c r="C151" s="9">
+        <v>9446023305</v>
+      </c>
       <c r="D151" s="9" t="s">
         <v>157</v>
       </c>
@@ -3541,7 +3601,9 @@
       <c r="B152" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C152" s="9"/>
+      <c r="C152" s="9">
+        <v>8301030291</v>
+      </c>
       <c r="D152" s="9" t="s">
         <v>157</v>
       </c>
@@ -3556,7 +3618,9 @@
       <c r="B153" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C153" s="9"/>
+      <c r="C153" s="9">
+        <v>7736269918</v>
+      </c>
       <c r="D153" s="9" t="s">
         <v>157</v>
       </c>
@@ -3571,7 +3635,9 @@
       <c r="B154" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C154" s="9"/>
+      <c r="C154" s="9">
+        <v>7736078231</v>
+      </c>
       <c r="D154" s="9" t="s">
         <v>157</v>
       </c>
@@ -3586,7 +3652,9 @@
       <c r="B155" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C155" s="9"/>
+      <c r="C155" s="9">
+        <v>9400023948</v>
+      </c>
       <c r="D155" s="9" t="s">
         <v>157</v>
       </c>
@@ -3601,7 +3669,9 @@
       <c r="B156" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C156" s="9"/>
+      <c r="C156" s="9">
+        <v>8590653918</v>
+      </c>
       <c r="D156" s="9" t="s">
         <v>157</v>
       </c>
@@ -3616,7 +3686,9 @@
       <c r="B157" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C157" s="9"/>
+      <c r="C157" s="9">
+        <v>6206648517</v>
+      </c>
       <c r="D157" s="9" t="s">
         <v>157</v>
       </c>
@@ -3631,7 +3703,9 @@
       <c r="B158" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C158" s="9"/>
+      <c r="C158" s="9">
+        <v>9930180615</v>
+      </c>
       <c r="D158" s="9" t="s">
         <v>157</v>
       </c>
@@ -3646,7 +3720,9 @@
       <c r="B159" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C159" s="9"/>
+      <c r="C159" s="9">
+        <v>9846302318</v>
+      </c>
       <c r="D159" s="9" t="s">
         <v>157</v>
       </c>

--- a/BPositive.xlsx
+++ b/BPositive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68670AEE-2C0E-4FD3-8EAB-6CA130FDBB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30BD123-D2CE-464B-B91C-305A2564C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AEE63962-B836-4864-8C75-EAC2AF0EE8F0}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:E159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3120,7 +3120,9 @@
       <c r="B123" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="9"/>
+      <c r="C123" s="9">
+        <v>8129404888</v>
+      </c>
       <c r="D123" s="9" t="s">
         <v>157</v>
       </c>
@@ -3186,7 +3188,9 @@
       <c r="B127" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="9"/>
+      <c r="C127" s="9">
+        <v>7736153093</v>
+      </c>
       <c r="D127" s="9" t="s">
         <v>157</v>
       </c>
@@ -3320,7 +3324,9 @@
       <c r="B135" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="9"/>
+      <c r="C135" s="9">
+        <v>9778046030</v>
+      </c>
       <c r="D135" s="9" t="s">
         <v>157</v>
       </c>
@@ -3420,7 +3426,9 @@
       <c r="B141" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="9"/>
+      <c r="C141" s="9">
+        <v>7860239393</v>
+      </c>
       <c r="D141" s="9" t="s">
         <v>157</v>
       </c>
@@ -3435,7 +3443,9 @@
       <c r="B142" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C142" s="9"/>
+      <c r="C142" s="9">
+        <v>8714482564</v>
+      </c>
       <c r="D142" s="9" t="s">
         <v>157</v>
       </c>
@@ -3467,7 +3477,9 @@
       <c r="B144" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C144" s="9"/>
+      <c r="C144" s="9">
+        <v>9746636864</v>
+      </c>
       <c r="D144" s="9" t="s">
         <v>157</v>
       </c>
